--- a/JoinedFlamm_Trait/Data/CombinedOG.xlsx
+++ b/JoinedFlamm_Trait/Data/CombinedOG.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenmmuac-my.sharepoint.com/personal/samukelisiwem_mandela_ac_za/Documents/Documents/3_SCHOLARY/PhD/Data collection/Analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenmmuac-my.sharepoint.com/personal/samukelisiwem_mandela_ac_za/Documents/Documents/3_SCHOLARY/PhD/Data collection/Analysis/01msc_cederberg_CombinedFlamm/JoinedFlamm_Trait/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_23B0DFD58F79A8536E3CA493EA7BD2725A409303" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C5D0EC6-B248-4637-B0D6-B0AC358C189D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1165,7 +1178,7 @@
   <dimension ref="A1:W733"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
